--- a/data/pca/factorExposure/factorExposure_2012-05-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-05-10.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01736267674062255</v>
+        <v>-0.01855997410042991</v>
       </c>
       <c r="C2">
-        <v>-0.03524005387598527</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.02657743436500038</v>
+      </c>
+      <c r="D2">
+        <v>0.006865123825960408</v>
+      </c>
+      <c r="E2">
+        <v>-0.02443376210748574</v>
+      </c>
+      <c r="F2">
+        <v>0.01065935039026183</v>
+      </c>
+      <c r="G2">
+        <v>0.01381757079378958</v>
+      </c>
+      <c r="H2">
+        <v>0.04839885973572467</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07214992524407435</v>
+        <v>-0.08201133392270375</v>
       </c>
       <c r="C4">
-        <v>-0.06136902066905516</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.04043989494018149</v>
+      </c>
+      <c r="D4">
+        <v>-0.06969190573747054</v>
+      </c>
+      <c r="E4">
+        <v>0.0002082510825218733</v>
+      </c>
+      <c r="F4">
+        <v>0.03325773355841696</v>
+      </c>
+      <c r="G4">
+        <v>-0.003108339632059483</v>
+      </c>
+      <c r="H4">
+        <v>-0.03365604850096685</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.09996000499828257</v>
+        <v>-0.1172326749300723</v>
       </c>
       <c r="C6">
-        <v>-0.06542595454275794</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.04126093765290684</v>
+      </c>
+      <c r="D6">
+        <v>-0.01020129164400887</v>
+      </c>
+      <c r="E6">
+        <v>0.004224789298331312</v>
+      </c>
+      <c r="F6">
+        <v>0.05907925397080346</v>
+      </c>
+      <c r="G6">
+        <v>0.01902624967036726</v>
+      </c>
+      <c r="H6">
+        <v>0.07088574385815474</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04847401413936323</v>
+        <v>-0.0603665966992913</v>
       </c>
       <c r="C7">
-        <v>-0.03185404371268175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.02210026548170187</v>
+      </c>
+      <c r="D7">
+        <v>-0.04132381849202095</v>
+      </c>
+      <c r="E7">
+        <v>-0.02236197567184739</v>
+      </c>
+      <c r="F7">
+        <v>0.03445699641846827</v>
+      </c>
+      <c r="G7">
+        <v>-0.04133535065117517</v>
+      </c>
+      <c r="H7">
+        <v>-0.02672131856146289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03458094919325531</v>
+        <v>-0.03901776110149364</v>
       </c>
       <c r="C8">
-        <v>-0.02190320278894104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.01251403538512732</v>
+      </c>
+      <c r="D8">
+        <v>-0.04117121555843802</v>
+      </c>
+      <c r="E8">
+        <v>-0.006220529063878837</v>
+      </c>
+      <c r="F8">
+        <v>0.04656247612698072</v>
+      </c>
+      <c r="G8">
+        <v>0.02594124890223349</v>
+      </c>
+      <c r="H8">
+        <v>0.02788200913978406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06696947417408189</v>
+        <v>-0.07567847597059235</v>
       </c>
       <c r="C9">
-        <v>-0.04825826617087164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.02842000092101719</v>
+      </c>
+      <c r="D9">
+        <v>-0.06461299330847257</v>
+      </c>
+      <c r="E9">
+        <v>-0.02006251283968274</v>
+      </c>
+      <c r="F9">
+        <v>0.04056008846122224</v>
+      </c>
+      <c r="G9">
+        <v>-0.001284654015731916</v>
+      </c>
+      <c r="H9">
+        <v>-0.05284708713515596</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03002106516545745</v>
+        <v>-0.03742897244918101</v>
       </c>
       <c r="C10">
-        <v>-0.03063038441633261</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.03093768765204832</v>
+      </c>
+      <c r="D10">
+        <v>0.1769302435404142</v>
+      </c>
+      <c r="E10">
+        <v>-0.04878062415323772</v>
+      </c>
+      <c r="F10">
+        <v>0.04061587653248038</v>
+      </c>
+      <c r="G10">
+        <v>-0.0376750635540789</v>
+      </c>
+      <c r="H10">
+        <v>0.03264161755533144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.06755165027577843</v>
+        <v>-0.07394946397039133</v>
       </c>
       <c r="C11">
-        <v>-0.05267023320418778</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.0309707806395777</v>
+      </c>
+      <c r="D11">
+        <v>-0.06192242179825092</v>
+      </c>
+      <c r="E11">
+        <v>0.01348127992386928</v>
+      </c>
+      <c r="F11">
+        <v>0.02671689277992984</v>
+      </c>
+      <c r="G11">
+        <v>-0.01117258127537067</v>
+      </c>
+      <c r="H11">
+        <v>-0.08638214650484016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05389223314948545</v>
+        <v>-0.06327309175187455</v>
       </c>
       <c r="C12">
-        <v>-0.05325241678663335</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.03657551761750823</v>
+      </c>
+      <c r="D12">
+        <v>-0.0467860835308912</v>
+      </c>
+      <c r="E12">
+        <v>-0.006374815306674501</v>
+      </c>
+      <c r="F12">
+        <v>0.02216450211013797</v>
+      </c>
+      <c r="G12">
+        <v>-0.004237758864644089</v>
+      </c>
+      <c r="H12">
+        <v>-0.04805856176246521</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.05888341137906661</v>
+        <v>-0.06384731881481705</v>
       </c>
       <c r="C13">
-        <v>-0.04741460709723293</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.02815001765099209</v>
+      </c>
+      <c r="D13">
+        <v>-0.03950028476118493</v>
+      </c>
+      <c r="E13">
+        <v>0.0005021028197946257</v>
+      </c>
+      <c r="F13">
+        <v>0.002012163764713719</v>
+      </c>
+      <c r="G13">
+        <v>-0.005535415819103855</v>
+      </c>
+      <c r="H13">
+        <v>-0.05737855306499082</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03147749356443356</v>
+        <v>-0.04152778652335126</v>
       </c>
       <c r="C14">
-        <v>-0.0319300871401067</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.02539131486246134</v>
+      </c>
+      <c r="D14">
+        <v>-0.00670503136239876</v>
+      </c>
+      <c r="E14">
+        <v>-0.02181218843323549</v>
+      </c>
+      <c r="F14">
+        <v>0.01696819000243332</v>
+      </c>
+      <c r="G14">
+        <v>0.007393797144754136</v>
+      </c>
+      <c r="H14">
+        <v>-0.05951569668710452</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.03881482567071853</v>
+        <v>-0.03999497728911248</v>
       </c>
       <c r="C15">
-        <v>-0.01102769804189062</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.001913600913720323</v>
+      </c>
+      <c r="D15">
+        <v>-0.006958975505712175</v>
+      </c>
+      <c r="E15">
+        <v>-0.03945964805822593</v>
+      </c>
+      <c r="F15">
+        <v>0.0005601100539486592</v>
+      </c>
+      <c r="G15">
+        <v>0.02310244964732497</v>
+      </c>
+      <c r="H15">
+        <v>-0.0550459104115649</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.0569923634329579</v>
+        <v>-0.06599781730509009</v>
       </c>
       <c r="C16">
-        <v>-0.04589829901427248</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.03005493660054209</v>
+      </c>
+      <c r="D16">
+        <v>-0.0601516815486887</v>
+      </c>
+      <c r="E16">
+        <v>-0.0009707667121736463</v>
+      </c>
+      <c r="F16">
+        <v>0.02526340245809914</v>
+      </c>
+      <c r="G16">
+        <v>-0.0067690125029013</v>
+      </c>
+      <c r="H16">
+        <v>-0.0546630549859342</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06104697985569701</v>
+        <v>-0.06187931117792864</v>
       </c>
       <c r="C20">
-        <v>-0.03922682714734942</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.01826095198309408</v>
+      </c>
+      <c r="D20">
+        <v>-0.05176174274613658</v>
+      </c>
+      <c r="E20">
+        <v>-0.0168248038185363</v>
+      </c>
+      <c r="F20">
+        <v>0.0252390380647436</v>
+      </c>
+      <c r="G20">
+        <v>-0.002602793191245529</v>
+      </c>
+      <c r="H20">
+        <v>-0.05014678441820299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02435136532256221</v>
+        <v>-0.02446730078777837</v>
       </c>
       <c r="C21">
-        <v>-0.002128078016429101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.005734793816825414</v>
+      </c>
+      <c r="D21">
+        <v>-0.03614832935690187</v>
+      </c>
+      <c r="E21">
+        <v>-0.07670505549231489</v>
+      </c>
+      <c r="F21">
+        <v>-0.01650255092896951</v>
+      </c>
+      <c r="G21">
+        <v>0.007054099222663877</v>
+      </c>
+      <c r="H21">
+        <v>0.02314524391243522</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.06896070427487451</v>
+        <v>-0.06418251439074248</v>
       </c>
       <c r="C22">
-        <v>-0.06747063545333083</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.04009149785300534</v>
+      </c>
+      <c r="D22">
+        <v>-0.09991478905139652</v>
+      </c>
+      <c r="E22">
+        <v>-0.6116131533332239</v>
+      </c>
+      <c r="F22">
+        <v>-0.1404421175832617</v>
+      </c>
+      <c r="G22">
+        <v>-0.01989831075109183</v>
+      </c>
+      <c r="H22">
+        <v>0.1318215258583151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.0699700463765887</v>
+        <v>-0.06483927666458635</v>
       </c>
       <c r="C23">
-        <v>-0.06666012495235001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.03903151084194657</v>
+      </c>
+      <c r="D23">
+        <v>-0.1008527114146391</v>
+      </c>
+      <c r="E23">
+        <v>-0.6106661630112032</v>
+      </c>
+      <c r="F23">
+        <v>-0.1395530891098943</v>
+      </c>
+      <c r="G23">
+        <v>-0.01865529150457516</v>
+      </c>
+      <c r="H23">
+        <v>0.1271701658939152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.06606863745800122</v>
+        <v>-0.0758951785513442</v>
       </c>
       <c r="C24">
-        <v>-0.0544611977773574</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.03469689248785821</v>
+      </c>
+      <c r="D24">
+        <v>-0.06045870651104383</v>
+      </c>
+      <c r="E24">
+        <v>-0.00731573955064286</v>
+      </c>
+      <c r="F24">
+        <v>0.03604864239672432</v>
+      </c>
+      <c r="G24">
+        <v>0.0006556411121943929</v>
+      </c>
+      <c r="H24">
+        <v>-0.06145071762998748</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.06653127199950032</v>
+        <v>-0.07377594676367337</v>
       </c>
       <c r="C25">
-        <v>-0.06038191945043458</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.0388929713013532</v>
+      </c>
+      <c r="D25">
+        <v>-0.05542984123874144</v>
+      </c>
+      <c r="E25">
+        <v>-0.009722255051233676</v>
+      </c>
+      <c r="F25">
+        <v>0.03047307100614252</v>
+      </c>
+      <c r="G25">
+        <v>0.01384615552659001</v>
+      </c>
+      <c r="H25">
+        <v>-0.06901009548875225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04104910284355313</v>
+        <v>-0.04507130216891485</v>
       </c>
       <c r="C26">
-        <v>-0.01292501973003883</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.003633557875021816</v>
+      </c>
+      <c r="D26">
+        <v>-0.02770559475958937</v>
+      </c>
+      <c r="E26">
+        <v>-0.03638467613729703</v>
+      </c>
+      <c r="F26">
+        <v>0.02419988617330789</v>
+      </c>
+      <c r="G26">
+        <v>-0.006601447781654604</v>
+      </c>
+      <c r="H26">
+        <v>-0.06495098777243834</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.0568429754529375</v>
+        <v>-0.07347247310962104</v>
       </c>
       <c r="C28">
-        <v>-0.0691619878374</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.06660849772321163</v>
+      </c>
+      <c r="D28">
+        <v>0.3172309528538657</v>
+      </c>
+      <c r="E28">
+        <v>-0.03886715376601512</v>
+      </c>
+      <c r="F28">
+        <v>0.05638822894586352</v>
+      </c>
+      <c r="G28">
+        <v>0.02775313492891468</v>
+      </c>
+      <c r="H28">
+        <v>-0.002192020472536701</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.03872860983667501</v>
+        <v>-0.04689496893145799</v>
       </c>
       <c r="C29">
-        <v>-0.0316644484262649</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.02326795018003714</v>
+      </c>
+      <c r="D29">
+        <v>-0.009336323351538722</v>
+      </c>
+      <c r="E29">
+        <v>-0.04284106522723001</v>
+      </c>
+      <c r="F29">
+        <v>0.009119785603898069</v>
+      </c>
+      <c r="G29">
+        <v>-0.0104206589357757</v>
+      </c>
+      <c r="H29">
+        <v>-0.08983784702296695</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1173434924394668</v>
+        <v>-0.1308284393299816</v>
       </c>
       <c r="C30">
-        <v>-0.1009820817388428</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.06349047642186391</v>
+      </c>
+      <c r="D30">
+        <v>-0.08846651625580536</v>
+      </c>
+      <c r="E30">
+        <v>-0.04046080188280231</v>
+      </c>
+      <c r="F30">
+        <v>0.007022049575403379</v>
+      </c>
+      <c r="G30">
+        <v>0.03294896678098991</v>
+      </c>
+      <c r="H30">
+        <v>0.03487556064377385</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03948037419947506</v>
+        <v>-0.04553562473328564</v>
       </c>
       <c r="C31">
-        <v>-0.02221128220900341</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01204898211360028</v>
+      </c>
+      <c r="D31">
+        <v>-0.02511851494031391</v>
+      </c>
+      <c r="E31">
+        <v>-0.02359759846850555</v>
+      </c>
+      <c r="F31">
+        <v>0.01334932312731766</v>
+      </c>
+      <c r="G31">
+        <v>-0.02072492919051786</v>
+      </c>
+      <c r="H31">
+        <v>-0.07286580872668501</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03465028036827206</v>
+        <v>-0.03407616850479667</v>
       </c>
       <c r="C32">
-        <v>-0.02419272493702667</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.01379674499661784</v>
+      </c>
+      <c r="D32">
+        <v>-0.01421305453328515</v>
+      </c>
+      <c r="E32">
+        <v>-0.06843406130641494</v>
+      </c>
+      <c r="F32">
+        <v>-0.003095893701675273</v>
+      </c>
+      <c r="G32">
+        <v>0.03306918518106999</v>
+      </c>
+      <c r="H32">
+        <v>-0.06006510523621944</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.07531806823023249</v>
+        <v>-0.09276691849265431</v>
       </c>
       <c r="C33">
-        <v>-0.04827604465971935</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.03033884776279503</v>
+      </c>
+      <c r="D33">
+        <v>-0.05771434098433866</v>
+      </c>
+      <c r="E33">
+        <v>-0.01469808260417354</v>
+      </c>
+      <c r="F33">
+        <v>0.009893164210876203</v>
+      </c>
+      <c r="G33">
+        <v>-0.01635884033932509</v>
+      </c>
+      <c r="H33">
+        <v>-0.06515701344896412</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05332090992680488</v>
+        <v>-0.05826238063241433</v>
       </c>
       <c r="C34">
-        <v>-0.03431578943452234</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01716881253730304</v>
+      </c>
+      <c r="D34">
+        <v>-0.05628130206850551</v>
+      </c>
+      <c r="E34">
+        <v>-0.001615595984342139</v>
+      </c>
+      <c r="F34">
+        <v>0.02032576183787691</v>
+      </c>
+      <c r="G34">
+        <v>0.002802625732840746</v>
+      </c>
+      <c r="H34">
+        <v>-0.04674621777610712</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03659722042239223</v>
+        <v>-0.04058333535988341</v>
       </c>
       <c r="C35">
-        <v>-0.01392418257460368</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.005445908042876888</v>
+      </c>
+      <c r="D35">
+        <v>-0.01163290911815026</v>
+      </c>
+      <c r="E35">
+        <v>-0.0212802312668276</v>
+      </c>
+      <c r="F35">
+        <v>-0.006442697716377096</v>
+      </c>
+      <c r="G35">
+        <v>-0.01285918684502708</v>
+      </c>
+      <c r="H35">
+        <v>-0.03575589333202071</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01905979998635218</v>
+        <v>-0.02510778793898052</v>
       </c>
       <c r="C36">
-        <v>-0.01612344394801636</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.01152380377178055</v>
+      </c>
+      <c r="D36">
+        <v>-0.01718873223588978</v>
+      </c>
+      <c r="E36">
+        <v>-0.03806706635067875</v>
+      </c>
+      <c r="F36">
+        <v>0.01866633979125455</v>
+      </c>
+      <c r="G36">
+        <v>-0.01266439227252558</v>
+      </c>
+      <c r="H36">
+        <v>-0.05616776996813732</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.03846014594436023</v>
+        <v>-0.04167566673326909</v>
       </c>
       <c r="C38">
-        <v>-0.006169009956502361</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.001444234620392824</v>
+      </c>
+      <c r="D38">
+        <v>-0.01974739015229689</v>
+      </c>
+      <c r="E38">
+        <v>-0.05812126660563659</v>
+      </c>
+      <c r="F38">
+        <v>-0.006532323801607251</v>
+      </c>
+      <c r="G38">
+        <v>0.01820818378898961</v>
+      </c>
+      <c r="H38">
+        <v>-0.02917139240905212</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.08728485336774666</v>
+        <v>-0.1016342709301029</v>
       </c>
       <c r="C39">
-        <v>-0.08269678152236448</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.05564797238159714</v>
+      </c>
+      <c r="D39">
+        <v>-0.0713079275165205</v>
+      </c>
+      <c r="E39">
+        <v>0.0146934990695566</v>
+      </c>
+      <c r="F39">
+        <v>0.01187492939849246</v>
+      </c>
+      <c r="G39">
+        <v>0.01889430986004405</v>
+      </c>
+      <c r="H39">
+        <v>-0.05214604760930767</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.06855740649712126</v>
+        <v>-0.07022488192984401</v>
       </c>
       <c r="C40">
-        <v>-0.05478910083553453</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.03129577921408516</v>
+      </c>
+      <c r="D40">
+        <v>-0.006449491502677575</v>
+      </c>
+      <c r="E40">
+        <v>-0.02028058207761914</v>
+      </c>
+      <c r="F40">
+        <v>-0.05298291804823802</v>
+      </c>
+      <c r="G40">
+        <v>0.06768034859750656</v>
+      </c>
+      <c r="H40">
+        <v>0.09205074089881109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.03924562882034469</v>
+        <v>-0.04186147905153743</v>
       </c>
       <c r="C41">
-        <v>-0.01124250749785573</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.002326252541991567</v>
+      </c>
+      <c r="D41">
+        <v>-0.03908741924870612</v>
+      </c>
+      <c r="E41">
+        <v>-0.006533154337035106</v>
+      </c>
+      <c r="F41">
+        <v>-0.01136423262770511</v>
+      </c>
+      <c r="G41">
+        <v>0.01193250881504987</v>
+      </c>
+      <c r="H41">
+        <v>-0.03822119898561178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04382228256125462</v>
+        <v>-0.05265558878383214</v>
       </c>
       <c r="C43">
-        <v>-0.02906970750169525</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.01843357974084949</v>
+      </c>
+      <c r="D43">
+        <v>-0.02498729052435004</v>
+      </c>
+      <c r="E43">
+        <v>-0.01789436726252174</v>
+      </c>
+      <c r="F43">
+        <v>0.009244291444372048</v>
+      </c>
+      <c r="G43">
+        <v>-0.005913871909044592</v>
+      </c>
+      <c r="H43">
+        <v>-0.0537998486715366</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.08936747181430521</v>
+        <v>-0.0904355463376405</v>
       </c>
       <c r="C44">
-        <v>-0.1003584566753102</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.06567158485404383</v>
+      </c>
+      <c r="D44">
+        <v>-0.05897019227814655</v>
+      </c>
+      <c r="E44">
+        <v>-0.09765328682784646</v>
+      </c>
+      <c r="F44">
+        <v>0.04734856471966745</v>
+      </c>
+      <c r="G44">
+        <v>0.03104511144348231</v>
+      </c>
+      <c r="H44">
+        <v>0.008804645962953373</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02454238303189648</v>
+        <v>-0.03058373833803028</v>
       </c>
       <c r="C46">
-        <v>-0.0143461352053144</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.009469614166272207</v>
+      </c>
+      <c r="D46">
+        <v>-0.03273072514902831</v>
+      </c>
+      <c r="E46">
+        <v>-0.0192677820990212</v>
+      </c>
+      <c r="F46">
+        <v>0.0209893818094445</v>
+      </c>
+      <c r="G46">
+        <v>0.002441159943699573</v>
+      </c>
+      <c r="H46">
+        <v>-0.04003233830036617</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.02630412884227038</v>
+        <v>-0.03120146693739742</v>
       </c>
       <c r="C47">
-        <v>-0.02171888850322099</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.01446894116575981</v>
+      </c>
+      <c r="D47">
+        <v>-0.01436728416760291</v>
+      </c>
+      <c r="E47">
+        <v>-0.05003226422682876</v>
+      </c>
+      <c r="F47">
+        <v>0.01456233526162564</v>
+      </c>
+      <c r="G47">
+        <v>-0.03541609609675173</v>
+      </c>
+      <c r="H47">
+        <v>-0.03492073678634407</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02923783844697515</v>
+        <v>-0.03549680099956661</v>
       </c>
       <c r="C48">
-        <v>-0.02124431671020943</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.01294754800153894</v>
+      </c>
+      <c r="D48">
+        <v>-0.03073641300731546</v>
+      </c>
+      <c r="E48">
+        <v>-0.03940491970047506</v>
+      </c>
+      <c r="F48">
+        <v>0.00735462422808254</v>
+      </c>
+      <c r="G48">
+        <v>0.006691839586972599</v>
+      </c>
+      <c r="H48">
+        <v>-0.05934988755827185</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1539578931405863</v>
+        <v>-0.1869247388256152</v>
       </c>
       <c r="C49">
-        <v>-0.0903123599790621</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.05629468168954765</v>
+      </c>
+      <c r="D49">
+        <v>-0.01568877126385831</v>
+      </c>
+      <c r="E49">
+        <v>0.1255713328041027</v>
+      </c>
+      <c r="F49">
+        <v>0.04397569559233969</v>
+      </c>
+      <c r="G49">
+        <v>-0.04754862235103498</v>
+      </c>
+      <c r="H49">
+        <v>0.2574080237173083</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03536859614397302</v>
+        <v>-0.04425494675105408</v>
       </c>
       <c r="C50">
-        <v>-0.02711515128719464</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.01975884744916487</v>
+      </c>
+      <c r="D50">
+        <v>-0.0347487219763795</v>
+      </c>
+      <c r="E50">
+        <v>-0.04900422637952392</v>
+      </c>
+      <c r="F50">
+        <v>0.02059062529670894</v>
+      </c>
+      <c r="G50">
+        <v>-0.01558172082461526</v>
+      </c>
+      <c r="H50">
+        <v>-0.0760373288226316</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02391353280387274</v>
+        <v>-0.02456832314555441</v>
       </c>
       <c r="C51">
-        <v>-0.01356236873478634</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.007721786467436023</v>
+      </c>
+      <c r="D51">
+        <v>-0.02294603077318316</v>
+      </c>
+      <c r="E51">
+        <v>-0.01421401017125559</v>
+      </c>
+      <c r="F51">
+        <v>0.01080942662081473</v>
+      </c>
+      <c r="G51">
+        <v>0.003349924958513601</v>
+      </c>
+      <c r="H51">
+        <v>-0.004963202427230071</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1412717207777238</v>
+        <v>-0.1602669520922161</v>
       </c>
       <c r="C53">
-        <v>-0.09246551884477228</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.06015532068752824</v>
+      </c>
+      <c r="D53">
+        <v>-0.01933365421245504</v>
+      </c>
+      <c r="E53">
+        <v>0.03609862697444116</v>
+      </c>
+      <c r="F53">
+        <v>0.01505279332919897</v>
+      </c>
+      <c r="G53">
+        <v>-0.003817974779411187</v>
+      </c>
+      <c r="H53">
+        <v>-0.1552300694990819</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05396412271229558</v>
+        <v>-0.05734427312244166</v>
       </c>
       <c r="C54">
-        <v>-0.02701907921127556</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01227525926417473</v>
+      </c>
+      <c r="D54">
+        <v>-0.02594285480686806</v>
+      </c>
+      <c r="E54">
+        <v>-0.04676409151425534</v>
+      </c>
+      <c r="F54">
+        <v>0.01344804454549302</v>
+      </c>
+      <c r="G54">
+        <v>0.008408370420946495</v>
+      </c>
+      <c r="H54">
+        <v>-0.0583881016903908</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09325402238787332</v>
+        <v>-0.1010459286694045</v>
       </c>
       <c r="C55">
-        <v>-0.06329429842278986</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.03975466126348152</v>
+      </c>
+      <c r="D55">
+        <v>-0.0249657305283629</v>
+      </c>
+      <c r="E55">
+        <v>-0.009675197112777471</v>
+      </c>
+      <c r="F55">
+        <v>0.01663272318444963</v>
+      </c>
+      <c r="G55">
+        <v>0.005549924975165731</v>
+      </c>
+      <c r="H55">
+        <v>-0.1441461355580137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1401454714584111</v>
+        <v>-0.1607656036224846</v>
       </c>
       <c r="C56">
-        <v>-0.1050140363843588</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.07013317295845246</v>
+      </c>
+      <c r="D56">
+        <v>-0.01726239986863043</v>
+      </c>
+      <c r="E56">
+        <v>0.03580043189407939</v>
+      </c>
+      <c r="F56">
+        <v>0.03471486282877616</v>
+      </c>
+      <c r="G56">
+        <v>-0.01646942009278129</v>
+      </c>
+      <c r="H56">
+        <v>-0.1614821711404356</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1180522261193305</v>
+        <v>-0.09771842492273576</v>
       </c>
       <c r="C58">
-        <v>-0.02140222387596855</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.0220491571673332</v>
+      </c>
+      <c r="D58">
+        <v>-0.05554887355419651</v>
+      </c>
+      <c r="E58">
+        <v>-0.1807316339658876</v>
+      </c>
+      <c r="F58">
+        <v>0.01348031901266684</v>
+      </c>
+      <c r="G58">
+        <v>-0.04033860166138715</v>
+      </c>
+      <c r="H58">
+        <v>0.1898000887572558</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1128723708956568</v>
+        <v>-0.1433342327387769</v>
       </c>
       <c r="C59">
-        <v>-0.07913227630961396</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.07265645829931189</v>
+      </c>
+      <c r="D59">
+        <v>0.3630008555414075</v>
+      </c>
+      <c r="E59">
+        <v>-0.04892318710197033</v>
+      </c>
+      <c r="F59">
+        <v>0.004339956536814537</v>
+      </c>
+      <c r="G59">
+        <v>-0.03629541872394226</v>
+      </c>
+      <c r="H59">
+        <v>0.002595193553697962</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1900031588034294</v>
+        <v>-0.2252118633279087</v>
       </c>
       <c r="C60">
-        <v>-0.1170981181819133</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.07578700173719091</v>
+      </c>
+      <c r="D60">
+        <v>-0.02733796292110977</v>
+      </c>
+      <c r="E60">
+        <v>0.07149636098990456</v>
+      </c>
+      <c r="F60">
+        <v>0.05235611925210881</v>
+      </c>
+      <c r="G60">
+        <v>0.02263338788655527</v>
+      </c>
+      <c r="H60">
+        <v>0.1659057854198373</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.0756952387887242</v>
+        <v>-0.08665837252801764</v>
       </c>
       <c r="C61">
-        <v>-0.06259030943132991</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.04163017838844164</v>
+      </c>
+      <c r="D61">
+        <v>-0.05295159075240867</v>
+      </c>
+      <c r="E61">
+        <v>0.0166387571271585</v>
+      </c>
+      <c r="F61">
+        <v>0.009279529956092086</v>
+      </c>
+      <c r="G61">
+        <v>-0.01318678408868012</v>
+      </c>
+      <c r="H61">
+        <v>-0.06705647108576104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1216036468888066</v>
+        <v>-0.1402402751488192</v>
       </c>
       <c r="C62">
-        <v>-0.08036220861916178</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.05202702822793405</v>
+      </c>
+      <c r="D62">
+        <v>-0.02407660355054965</v>
+      </c>
+      <c r="E62">
+        <v>0.0543856388943564</v>
+      </c>
+      <c r="F62">
+        <v>0.009180354478928775</v>
+      </c>
+      <c r="G62">
+        <v>0.02806156612593269</v>
+      </c>
+      <c r="H62">
+        <v>-0.1567695890225682</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05186655788976637</v>
+        <v>-0.05139095557511111</v>
       </c>
       <c r="C63">
-        <v>-0.03166797029439086</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.01573090348259437</v>
+      </c>
+      <c r="D63">
+        <v>-0.02680660283252664</v>
+      </c>
+      <c r="E63">
+        <v>-0.04915992785083679</v>
+      </c>
+      <c r="F63">
+        <v>0.005287882461756473</v>
+      </c>
+      <c r="G63">
+        <v>0.03581045309638926</v>
+      </c>
+      <c r="H63">
+        <v>-0.08289591126086916</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1053044518731189</v>
+        <v>-0.1114894436232619</v>
       </c>
       <c r="C64">
-        <v>-0.04268286680081856</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.01477767772369713</v>
+      </c>
+      <c r="D64">
+        <v>-0.04904893623968765</v>
+      </c>
+      <c r="E64">
+        <v>-0.02352983648821423</v>
+      </c>
+      <c r="F64">
+        <v>0.05026855245382762</v>
+      </c>
+      <c r="G64">
+        <v>0.03070849366207391</v>
+      </c>
+      <c r="H64">
+        <v>-0.06840126464049855</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1131654086713474</v>
+        <v>-0.1266143656871214</v>
       </c>
       <c r="C65">
-        <v>-0.06671771159827196</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.04010682155801147</v>
+      </c>
+      <c r="D65">
+        <v>-0.002781031222102035</v>
+      </c>
+      <c r="E65">
+        <v>-0.002623058097647496</v>
+      </c>
+      <c r="F65">
+        <v>0.06709116828142983</v>
+      </c>
+      <c r="G65">
+        <v>0.03941149537376359</v>
+      </c>
+      <c r="H65">
+        <v>0.08669687577400063</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1350017338080647</v>
+        <v>-0.1539333456532363</v>
       </c>
       <c r="C66">
-        <v>-0.09112824470760376</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.05496599331342927</v>
+      </c>
+      <c r="D66">
+        <v>-0.1125483519592213</v>
+      </c>
+      <c r="E66">
+        <v>0.05224055519935546</v>
+      </c>
+      <c r="F66">
+        <v>0.02553206599805025</v>
+      </c>
+      <c r="G66">
+        <v>0.01927006462338404</v>
+      </c>
+      <c r="H66">
+        <v>-0.1183437790796647</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.06999241976587078</v>
+        <v>-0.07819416171063344</v>
       </c>
       <c r="C67">
-        <v>-0.02053912889033311</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.006838693460554188</v>
+      </c>
+      <c r="D67">
+        <v>-0.02962588458916124</v>
+      </c>
+      <c r="E67">
+        <v>-0.02752152829953703</v>
+      </c>
+      <c r="F67">
+        <v>0.01478836489937419</v>
+      </c>
+      <c r="G67">
+        <v>-0.003414722323609821</v>
+      </c>
+      <c r="H67">
+        <v>-0.02745420458310547</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05800267376399144</v>
+        <v>-0.06551029032244382</v>
       </c>
       <c r="C68">
-        <v>-0.04612809896946208</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.04208574140864737</v>
+      </c>
+      <c r="D68">
+        <v>0.2651953559329671</v>
+      </c>
+      <c r="E68">
+        <v>-0.05044192285230497</v>
+      </c>
+      <c r="F68">
+        <v>0.01220293856049837</v>
+      </c>
+      <c r="G68">
+        <v>-0.01272354448312821</v>
+      </c>
+      <c r="H68">
+        <v>-0.02275111472745967</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.04951303085695075</v>
+        <v>-0.04814903092011474</v>
       </c>
       <c r="C69">
-        <v>-0.02375500669288482</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.007178938207439575</v>
+      </c>
+      <c r="D69">
+        <v>-0.02012383466864158</v>
+      </c>
+      <c r="E69">
+        <v>-0.02518379686213454</v>
+      </c>
+      <c r="F69">
+        <v>-0.003756199344682647</v>
+      </c>
+      <c r="G69">
+        <v>-0.01012414169102977</v>
+      </c>
+      <c r="H69">
+        <v>-0.06309520604921701</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.005194302338656609</v>
+        <v>-0.02161727629133087</v>
       </c>
       <c r="C70">
-        <v>0.00320609679398954</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.0001622672951142865</v>
+      </c>
+      <c r="D70">
+        <v>-0.0001301937491765744</v>
+      </c>
+      <c r="E70">
+        <v>0.02583752098107487</v>
+      </c>
+      <c r="F70">
+        <v>0.01979590735611099</v>
+      </c>
+      <c r="G70">
+        <v>-0.01744095393881713</v>
+      </c>
+      <c r="H70">
+        <v>0.05637406414719721</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.06069579594393414</v>
+        <v>-0.07006595819887756</v>
       </c>
       <c r="C71">
-        <v>-0.04228480311115471</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.03967076269850329</v>
+      </c>
+      <c r="D71">
+        <v>0.2952372791637335</v>
+      </c>
+      <c r="E71">
+        <v>-0.04762649582360276</v>
+      </c>
+      <c r="F71">
+        <v>0.04202991765872018</v>
+      </c>
+      <c r="G71">
+        <v>-0.005348821024841206</v>
+      </c>
+      <c r="H71">
+        <v>-0.01502347615495473</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1343794723021907</v>
+        <v>-0.1535656465333093</v>
       </c>
       <c r="C72">
-        <v>-0.07147146959638002</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.04102105172801269</v>
+      </c>
+      <c r="D72">
+        <v>0.002102835885113149</v>
+      </c>
+      <c r="E72">
+        <v>0.094395888433265</v>
+      </c>
+      <c r="F72">
+        <v>-0.1648224072217932</v>
+      </c>
+      <c r="G72">
+        <v>0.1078116756115156</v>
+      </c>
+      <c r="H72">
+        <v>-0.01489243407463028</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2487259278170859</v>
+        <v>-0.2785746051766531</v>
       </c>
       <c r="C73">
-        <v>-0.1437538151698195</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.07799342802579899</v>
+      </c>
+      <c r="D73">
+        <v>-0.08317486285503101</v>
+      </c>
+      <c r="E73">
+        <v>0.18687673341044</v>
+      </c>
+      <c r="F73">
+        <v>0.08456492459093702</v>
+      </c>
+      <c r="G73">
+        <v>-0.1824180289688066</v>
+      </c>
+      <c r="H73">
+        <v>0.5517266750784027</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07257989996896644</v>
+        <v>-0.08885481945361556</v>
       </c>
       <c r="C74">
-        <v>-0.08281548323136191</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.06241680153611637</v>
+      </c>
+      <c r="D74">
+        <v>-0.02677940800461193</v>
+      </c>
+      <c r="E74">
+        <v>0.005393628386779068</v>
+      </c>
+      <c r="F74">
+        <v>-0.01194932514478156</v>
+      </c>
+      <c r="G74">
+        <v>-0.03711450418547452</v>
+      </c>
+      <c r="H74">
+        <v>-0.128356559617845</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09143932500011269</v>
+        <v>-0.1017156776255089</v>
       </c>
       <c r="C75">
-        <v>-0.05932495261870809</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.03102277269744452</v>
+      </c>
+      <c r="D75">
+        <v>-0.01057337890013765</v>
+      </c>
+      <c r="E75">
+        <v>-0.003542007198393727</v>
+      </c>
+      <c r="F75">
+        <v>0.04377381623716267</v>
+      </c>
+      <c r="G75">
+        <v>-0.01800923813532669</v>
+      </c>
+      <c r="H75">
+        <v>-0.121537999332209</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1186108417746554</v>
+        <v>-0.1354689257383513</v>
       </c>
       <c r="C76">
-        <v>-0.09933448396418944</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.06717446907470415</v>
+      </c>
+      <c r="D76">
+        <v>-0.0506299512140911</v>
+      </c>
+      <c r="E76">
+        <v>-0.01486309951689457</v>
+      </c>
+      <c r="F76">
+        <v>0.05597782176444566</v>
+      </c>
+      <c r="G76">
+        <v>-0.007193799270996531</v>
+      </c>
+      <c r="H76">
+        <v>-0.1647961628727352</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.117655419775681</v>
+        <v>-0.1143615916960487</v>
       </c>
       <c r="C77">
-        <v>-0.0529644458123196</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.01457239009607665</v>
+      </c>
+      <c r="D77">
+        <v>-0.0246916478639409</v>
+      </c>
+      <c r="E77">
+        <v>0.01938826213526183</v>
+      </c>
+      <c r="F77">
+        <v>0.2095640122637932</v>
+      </c>
+      <c r="G77">
+        <v>0.8891967994598464</v>
+      </c>
+      <c r="H77">
+        <v>0.1420967850348036</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.09032942004864526</v>
+        <v>-0.122556166500682</v>
       </c>
       <c r="C78">
-        <v>-0.04922689328640573</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03561815131611024</v>
+      </c>
+      <c r="D78">
+        <v>-0.09148582318877428</v>
+      </c>
+      <c r="E78">
+        <v>-0.05991790506279702</v>
+      </c>
+      <c r="F78">
+        <v>0.02174942197506103</v>
+      </c>
+      <c r="G78">
+        <v>0.04175611669276998</v>
+      </c>
+      <c r="H78">
+        <v>0.1033952138586493</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1373565081237373</v>
+        <v>-0.1495603728373433</v>
       </c>
       <c r="C79">
-        <v>-0.09892223377736098</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.05779516068889733</v>
+      </c>
+      <c r="D79">
+        <v>-0.02961877012425278</v>
+      </c>
+      <c r="E79">
+        <v>0.02261082719432221</v>
+      </c>
+      <c r="F79">
+        <v>0.01265918485701257</v>
+      </c>
+      <c r="G79">
+        <v>-0.02001979363245351</v>
+      </c>
+      <c r="H79">
+        <v>-0.1558915871744685</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04108086772554616</v>
+        <v>-0.04141155940284687</v>
       </c>
       <c r="C80">
-        <v>-0.01891964313227483</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.007075417234737274</v>
+      </c>
+      <c r="D80">
+        <v>-0.02505536486869813</v>
+      </c>
+      <c r="E80">
+        <v>0.004127817458722527</v>
+      </c>
+      <c r="F80">
+        <v>-0.01555898505906264</v>
+      </c>
+      <c r="G80">
+        <v>-0.03806390327336273</v>
+      </c>
+      <c r="H80">
+        <v>-0.04366371182734202</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1135874616170927</v>
+        <v>-0.1202688091250853</v>
       </c>
       <c r="C81">
-        <v>-0.0729137655398448</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.03822609531820299</v>
+      </c>
+      <c r="D81">
+        <v>-0.02841767297581613</v>
+      </c>
+      <c r="E81">
+        <v>0.001021922341410409</v>
+      </c>
+      <c r="F81">
+        <v>0.02263723211782779</v>
+      </c>
+      <c r="G81">
+        <v>-0.05565332382932609</v>
+      </c>
+      <c r="H81">
+        <v>-0.1811730213402862</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1194327084840084</v>
+        <v>-0.129067377985389</v>
       </c>
       <c r="C82">
-        <v>-0.08562922632877906</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.05341690219288322</v>
+      </c>
+      <c r="D82">
+        <v>-0.0313132137334047</v>
+      </c>
+      <c r="E82">
+        <v>0.01589948951335884</v>
+      </c>
+      <c r="F82">
+        <v>0.05499530127321525</v>
+      </c>
+      <c r="G82">
+        <v>-0.05423286200280125</v>
+      </c>
+      <c r="H82">
+        <v>-0.1730858985414612</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07598772626180433</v>
+        <v>-0.07973932081599916</v>
       </c>
       <c r="C83">
-        <v>-0.01046491601119454</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.01008545387768344</v>
+      </c>
+      <c r="D83">
+        <v>-0.04100355227523141</v>
+      </c>
+      <c r="E83">
+        <v>-0.009521715808978537</v>
+      </c>
+      <c r="F83">
+        <v>0.04580833657681872</v>
+      </c>
+      <c r="G83">
+        <v>-0.07942961741802086</v>
+      </c>
+      <c r="H83">
+        <v>0.05140595737131418</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02559459677892642</v>
+        <v>-0.03858951410127859</v>
       </c>
       <c r="C84">
-        <v>-0.02543963666255918</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.0222485075225829</v>
+      </c>
+      <c r="D84">
+        <v>-0.03626845165913769</v>
+      </c>
+      <c r="E84">
+        <v>-0.0222474946493779</v>
+      </c>
+      <c r="F84">
+        <v>-0.05037581652271853</v>
+      </c>
+      <c r="G84">
+        <v>-0.0616371200254624</v>
+      </c>
+      <c r="H84">
+        <v>-0.02093573014522549</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1144436055820752</v>
+        <v>-0.1181859930695788</v>
       </c>
       <c r="C85">
-        <v>-0.0669904313763033</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.03235429213469081</v>
+      </c>
+      <c r="D85">
+        <v>-0.02753593172026309</v>
+      </c>
+      <c r="E85">
+        <v>-0.006012999584562664</v>
+      </c>
+      <c r="F85">
+        <v>0.05704516203246628</v>
+      </c>
+      <c r="G85">
+        <v>-0.01829344922752531</v>
+      </c>
+      <c r="H85">
+        <v>-0.1490458153080656</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.04664850128465287</v>
+        <v>-0.05128766992163807</v>
       </c>
       <c r="C86">
-        <v>-0.02502197902522842</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.01239985182644584</v>
+      </c>
+      <c r="D86">
+        <v>-0.02358369975671502</v>
+      </c>
+      <c r="E86">
+        <v>-0.05801245302637982</v>
+      </c>
+      <c r="F86">
+        <v>0.02474593777996362</v>
+      </c>
+      <c r="G86">
+        <v>-0.0028821064522117</v>
+      </c>
+      <c r="H86">
+        <v>-0.01388433395879659</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1183271052142465</v>
+        <v>-0.1213896315494051</v>
       </c>
       <c r="C87">
-        <v>-0.07821463486969639</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.03859431021958613</v>
+      </c>
+      <c r="D87">
+        <v>-0.07128517668102337</v>
+      </c>
+      <c r="E87">
+        <v>-0.01497596425031923</v>
+      </c>
+      <c r="F87">
+        <v>0.01276409051078205</v>
+      </c>
+      <c r="G87">
+        <v>0.09934173780660105</v>
+      </c>
+      <c r="H87">
+        <v>-0.002022574911581277</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05308189094555942</v>
+        <v>-0.0587598303520897</v>
       </c>
       <c r="C88">
-        <v>-0.03259476639823791</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.01886923517183914</v>
+      </c>
+      <c r="D88">
+        <v>-0.02496188587361903</v>
+      </c>
+      <c r="E88">
+        <v>-0.01585274267600197</v>
+      </c>
+      <c r="F88">
+        <v>0.00815569210696734</v>
+      </c>
+      <c r="G88">
+        <v>0.008951317410546932</v>
+      </c>
+      <c r="H88">
+        <v>-0.06455011176950813</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08229741014664539</v>
+        <v>-0.1027944813314522</v>
       </c>
       <c r="C89">
-        <v>-0.06749679016610631</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.06442199997679533</v>
+      </c>
+      <c r="D89">
+        <v>0.3296811442578821</v>
+      </c>
+      <c r="E89">
+        <v>-0.078585086562874</v>
+      </c>
+      <c r="F89">
+        <v>0.07453728808188159</v>
+      </c>
+      <c r="G89">
+        <v>-0.02025673991254149</v>
+      </c>
+      <c r="H89">
+        <v>0.007252945884391085</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.0732251331731934</v>
+        <v>-0.08691315554845931</v>
       </c>
       <c r="C90">
-        <v>-0.05453917058820763</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.0501414199082833</v>
+      </c>
+      <c r="D90">
+        <v>0.3065009018183567</v>
+      </c>
+      <c r="E90">
+        <v>-0.06468080674463836</v>
+      </c>
+      <c r="F90">
+        <v>0.001072306254339453</v>
+      </c>
+      <c r="G90">
+        <v>-0.005338586265003609</v>
+      </c>
+      <c r="H90">
+        <v>-0.02285855630015361</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.0785821019832134</v>
+        <v>-0.08679970507550167</v>
       </c>
       <c r="C91">
-        <v>-0.06320092863839076</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.03926541706520997</v>
+      </c>
+      <c r="D91">
+        <v>-0.02617783209014265</v>
+      </c>
+      <c r="E91">
+        <v>-0.01548852452542312</v>
+      </c>
+      <c r="F91">
+        <v>0.003361683419124135</v>
+      </c>
+      <c r="G91">
+        <v>-0.04798859256673454</v>
+      </c>
+      <c r="H91">
+        <v>-0.08138401575936173</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.0824350698913551</v>
+        <v>-0.09605067606800645</v>
       </c>
       <c r="C92">
-        <v>-0.06618236212152796</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.05987438136351123</v>
+      </c>
+      <c r="D92">
+        <v>0.3457077461157993</v>
+      </c>
+      <c r="E92">
+        <v>-0.05692849577172207</v>
+      </c>
+      <c r="F92">
+        <v>0.03595713299921285</v>
+      </c>
+      <c r="G92">
+        <v>0.002321326981875938</v>
+      </c>
+      <c r="H92">
+        <v>-0.01811449980783773</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06622418767557721</v>
+        <v>-0.08457887846173651</v>
       </c>
       <c r="C93">
-        <v>-0.05875384432371986</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.05851510200762272</v>
+      </c>
+      <c r="D93">
+        <v>0.3051096708424114</v>
+      </c>
+      <c r="E93">
+        <v>-0.03980117702368881</v>
+      </c>
+      <c r="F93">
+        <v>0.0474907834087358</v>
+      </c>
+      <c r="G93">
+        <v>0.007293533472729433</v>
+      </c>
+      <c r="H93">
+        <v>0.006926820197085401</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1249764156347548</v>
+        <v>-0.1276289589294392</v>
       </c>
       <c r="C94">
-        <v>-0.07405673183393931</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.0334327293042774</v>
+      </c>
+      <c r="D94">
+        <v>-0.04893561294400641</v>
+      </c>
+      <c r="E94">
+        <v>0.02048075492695625</v>
+      </c>
+      <c r="F94">
+        <v>0.02422709306089516</v>
+      </c>
+      <c r="G94">
+        <v>-0.04417707924394226</v>
+      </c>
+      <c r="H94">
+        <v>-0.09265731026731577</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.114767999849207</v>
+        <v>-0.1245868836337461</v>
       </c>
       <c r="C95">
-        <v>-0.05345114441449847</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.02117273735181709</v>
+      </c>
+      <c r="D95">
+        <v>-0.06126042920958449</v>
+      </c>
+      <c r="E95">
+        <v>0.009641627100555699</v>
+      </c>
+      <c r="F95">
+        <v>0.02907471068872672</v>
+      </c>
+      <c r="G95">
+        <v>-0.009435208969069074</v>
+      </c>
+      <c r="H95">
+        <v>0.002932805914808794</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.201850796320439</v>
+        <v>-0.2161986772332335</v>
       </c>
       <c r="C97">
-        <v>-0.0646109787216593</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.01800590705265632</v>
+      </c>
+      <c r="D97">
+        <v>0.06456837858972461</v>
+      </c>
+      <c r="E97">
+        <v>0.1798801003110948</v>
+      </c>
+      <c r="F97">
+        <v>-0.8962204453957107</v>
+      </c>
+      <c r="G97">
+        <v>0.1516773599455002</v>
+      </c>
+      <c r="H97">
+        <v>0.003266647582141348</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2398721302321671</v>
+        <v>-0.2688622124361704</v>
       </c>
       <c r="C98">
-        <v>-0.1052100937308898</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.0484918888976868</v>
+      </c>
+      <c r="D98">
+        <v>-0.05663559498560785</v>
+      </c>
+      <c r="E98">
+        <v>0.1550229401203582</v>
+      </c>
+      <c r="F98">
+        <v>0.05394181485653027</v>
+      </c>
+      <c r="G98">
+        <v>-0.2727896742690737</v>
+      </c>
+      <c r="H98">
+        <v>0.2069882781808245</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.5313849957268929</v>
+        <v>-0.3199366441175082</v>
       </c>
       <c r="C99">
-        <v>0.8358987646408893</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.9350990202889804</v>
+      </c>
+      <c r="D99">
+        <v>0.06198487568590757</v>
+      </c>
+      <c r="E99">
+        <v>-0.04349119978350825</v>
+      </c>
+      <c r="F99">
+        <v>0.04458721362667482</v>
+      </c>
+      <c r="G99">
+        <v>-0.01340015298264703</v>
+      </c>
+      <c r="H99">
+        <v>-0.04450948935489592</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.03879793304163009</v>
+        <v>-0.0469876957231973</v>
       </c>
       <c r="C101">
-        <v>-0.03166759409544318</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.02335526931853493</v>
+      </c>
+      <c r="D101">
+        <v>-0.009829578517545843</v>
+      </c>
+      <c r="E101">
+        <v>-0.04203862564270484</v>
+      </c>
+      <c r="F101">
+        <v>0.008594120437395887</v>
+      </c>
+      <c r="G101">
+        <v>-0.01052774317713272</v>
+      </c>
+      <c r="H101">
+        <v>-0.08903782619943623</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
